--- a/산출물_프로젝트_스킬 관리/구현/20201103_스킬관리_스킬관리상세팝업_테스트케이스_V1.0.xlsx
+++ b/산출물_프로젝트_스킬 관리/구현/20201103_스킬관리_스킬관리상세팝업_테스트케이스_V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
-    <t>IMS 스킬관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시험절차 및 결과서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,15 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>황태윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.08.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조회 이후 추가버튼을 눌러 열을 추가한 뒤 하단의 스킬구분, 스킬명, 숙련도를 다건 입력후 저장한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력한 구분, 스킬명, 숙련도 등의 정보가 정확하게 저장 되었는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +198,22 @@
   </si>
   <si>
     <t>해당 인원의 스킬 정보가 삭제 되었는지 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 이후 추가버튼을 눌러 열을 추가, 삭제 한 뒤 하단의 스킬구분, 스킬명, 숙련도를 다건 입력후 저장한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정헌철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMS 스킬관리 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDB2A2FB-488F-4109-8903-19B5E2913A83}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB2A2FB-488F-4109-8903-19B5E2913A83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,7 +628,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A366D54F-3A08-448C-865A-992888AA78EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A366D54F-3A08-448C-865A-992888AA78EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -694,7 +694,7 @@
         <xdr:cNvPr id="12" name="직사각형 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A366D54F-3A08-448C-865A-992888AA78EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A366D54F-3A08-448C-865A-992888AA78EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,7 +809,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB56F386-2BBF-4D47-A803-3A22EDEB4C3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB56F386-2BBF-4D47-A803-3A22EDEB4C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +919,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB56F386-2BBF-4D47-A803-3A22EDEB4C3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB56F386-2BBF-4D47-A803-3A22EDEB4C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1292,7 +1292,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1313,7 +1313,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1791,7 +1791,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1861,41 +1861,41 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
       <c r="C1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1937,22 +1937,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -1960,13 +1960,13 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -1979,77 +1979,77 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="N2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="R2" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="15">
         <v>44138</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -2060,35 +2060,35 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" s="15">
         <v>44138</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -2101,33 +2101,33 @@
     </row>
     <row r="5" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G5" s="15">
         <v>44138</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -3923,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -3939,7 +3939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
@@ -3955,7 +3955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
